--- a/Code/Results/Cases/Case_0_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.998881766504177</v>
+        <v>1.036038093016071</v>
       </c>
       <c r="D2">
-        <v>1.011904904190301</v>
+        <v>1.045322645424396</v>
       </c>
       <c r="E2">
-        <v>1.00538676689399</v>
+        <v>1.035001808334363</v>
       </c>
       <c r="F2">
-        <v>1.013532406278207</v>
+        <v>1.052172954246519</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042717705623292</v>
+        <v>1.032677687955853</v>
       </c>
       <c r="J2">
-        <v>1.021095975262229</v>
+        <v>1.041148591938893</v>
       </c>
       <c r="K2">
-        <v>1.023200839336782</v>
+        <v>1.048091209690816</v>
       </c>
       <c r="L2">
-        <v>1.016771562180249</v>
+        <v>1.0377996643153</v>
       </c>
       <c r="M2">
-        <v>1.02480637827324</v>
+        <v>1.05492242056042</v>
       </c>
       <c r="N2">
-        <v>1.022546048668445</v>
+        <v>1.042627142360859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004026039363077</v>
+        <v>1.037116611126068</v>
       </c>
       <c r="D3">
-        <v>1.016639776380293</v>
+        <v>1.046372156142156</v>
       </c>
       <c r="E3">
-        <v>1.009541400911101</v>
+        <v>1.035922098123694</v>
       </c>
       <c r="F3">
-        <v>1.018868045310886</v>
+        <v>1.053371257679468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043717821357057</v>
+        <v>1.032813050072243</v>
       </c>
       <c r="J3">
-        <v>1.024407548968899</v>
+        <v>1.041870257755953</v>
       </c>
       <c r="K3">
-        <v>1.027064084714963</v>
+        <v>1.04895151746996</v>
       </c>
       <c r="L3">
-        <v>1.020053636198708</v>
+        <v>1.038528963353022</v>
       </c>
       <c r="M3">
-        <v>1.029265066418053</v>
+        <v>1.055932527072181</v>
       </c>
       <c r="N3">
-        <v>1.025862325189623</v>
+        <v>1.043349833026156</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007279641337355</v>
+        <v>1.03781451815435</v>
       </c>
       <c r="D4">
-        <v>1.019639778874891</v>
+        <v>1.04705163237875</v>
       </c>
       <c r="E4">
-        <v>1.012175260869344</v>
+        <v>1.036517969542671</v>
       </c>
       <c r="F4">
-        <v>1.022249789394647</v>
+        <v>1.054147319026381</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044337886816507</v>
+        <v>1.032899070497003</v>
       </c>
       <c r="J4">
-        <v>1.026498948587548</v>
+        <v>1.042336700454698</v>
       </c>
       <c r="K4">
-        <v>1.029506809651738</v>
+        <v>1.049507966197953</v>
       </c>
       <c r="L4">
-        <v>1.022128928959958</v>
+        <v>1.039000625054044</v>
       </c>
       <c r="M4">
-        <v>1.032086895393795</v>
+        <v>1.056586240975379</v>
       </c>
       <c r="N4">
-        <v>1.027956694835618</v>
+        <v>1.043816938127034</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00863020116509</v>
+        <v>1.038107926744809</v>
       </c>
       <c r="D5">
-        <v>1.020886311677164</v>
+        <v>1.047337373397861</v>
       </c>
       <c r="E5">
-        <v>1.013269995304626</v>
+        <v>1.036768565136205</v>
       </c>
       <c r="F5">
-        <v>1.023655225678467</v>
+        <v>1.054473738030309</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04459223120222</v>
+        <v>1.032934857880261</v>
       </c>
       <c r="J5">
-        <v>1.027366302983729</v>
+        <v>1.042532667611929</v>
       </c>
       <c r="K5">
-        <v>1.030520577813419</v>
+        <v>1.049741842678528</v>
       </c>
       <c r="L5">
-        <v>1.022990206734017</v>
+        <v>1.039198853173767</v>
       </c>
       <c r="M5">
-        <v>1.033258636338164</v>
+        <v>1.056861088170872</v>
       </c>
       <c r="N5">
-        <v>1.028825280974528</v>
+        <v>1.044013183580107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00885597449932</v>
+        <v>1.038157191847206</v>
       </c>
       <c r="D6">
-        <v>1.021094766686499</v>
+        <v>1.047385355803666</v>
       </c>
       <c r="E6">
-        <v>1.013453084660516</v>
+        <v>1.03681064658133</v>
       </c>
       <c r="F6">
-        <v>1.023890271216369</v>
+        <v>1.054528554773184</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044634569706883</v>
+        <v>1.032940844706807</v>
       </c>
       <c r="J6">
-        <v>1.027511251804188</v>
+        <v>1.042565564007282</v>
       </c>
       <c r="K6">
-        <v>1.030690036786427</v>
+        <v>1.049781108369125</v>
       </c>
       <c r="L6">
-        <v>1.023134175470362</v>
+        <v>1.039232133114732</v>
       </c>
       <c r="M6">
-        <v>1.033454539595706</v>
+        <v>1.056907237745784</v>
       </c>
       <c r="N6">
-        <v>1.028970435638938</v>
+        <v>1.044046126692114</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007297754457453</v>
+        <v>1.037818438660477</v>
       </c>
       <c r="D7">
-        <v>1.019656491973585</v>
+        <v>1.0470554501137</v>
       </c>
       <c r="E7">
-        <v>1.012189937398558</v>
+        <v>1.036521317655086</v>
       </c>
       <c r="F7">
-        <v>1.022268631860384</v>
+        <v>1.054151680012984</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044341310061834</v>
+        <v>1.032899550165937</v>
       </c>
       <c r="J7">
-        <v>1.02651058429895</v>
+        <v>1.042339319470085</v>
       </c>
       <c r="K7">
-        <v>1.029520406707214</v>
+        <v>1.049511091481337</v>
       </c>
       <c r="L7">
-        <v>1.022140480769827</v>
+        <v>1.039003274017787</v>
       </c>
       <c r="M7">
-        <v>1.032102608699571</v>
+        <v>1.056589913395221</v>
       </c>
       <c r="N7">
-        <v>1.027968347071065</v>
+        <v>1.043819560861723</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000636292606501</v>
+        <v>1.036402576530892</v>
       </c>
       <c r="D8">
-        <v>1.013518653885497</v>
+        <v>1.045677255332853</v>
       </c>
       <c r="E8">
-        <v>1.006802431870486</v>
+        <v>1.035312745224713</v>
       </c>
       <c r="F8">
-        <v>1.015350694558228</v>
+        <v>1.052577786102696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04306139955113</v>
+        <v>1.032723758719595</v>
       </c>
       <c r="J8">
-        <v>1.022226053455812</v>
+        <v>1.041392590603611</v>
       </c>
       <c r="K8">
-        <v>1.024518567898352</v>
+        <v>1.048382001929579</v>
       </c>
       <c r="L8">
-        <v>1.017891041603777</v>
+        <v>1.03804618467442</v>
       </c>
       <c r="M8">
-        <v>1.026326669426757</v>
+        <v>1.055263768626857</v>
       </c>
       <c r="N8">
-        <v>1.023677731702687</v>
+        <v>1.042871487531668</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9882881759316154</v>
+        <v>1.033907885855682</v>
       </c>
       <c r="D9">
-        <v>1.002185750284162</v>
+        <v>1.043251553211309</v>
       </c>
       <c r="E9">
-        <v>0.9968678849716169</v>
+        <v>1.033186027369787</v>
       </c>
       <c r="F9">
-        <v>1.002585061681627</v>
+        <v>1.049809570297389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04059138709534</v>
+        <v>1.032401993828691</v>
       </c>
       <c r="J9">
-        <v>1.01426139737706</v>
+        <v>1.039720327574775</v>
       </c>
       <c r="K9">
-        <v>1.015243464476383</v>
+        <v>1.046390655542878</v>
       </c>
       <c r="L9">
-        <v>1.010011983782724</v>
+        <v>1.036357812095791</v>
       </c>
       <c r="M9">
-        <v>1.015636336834579</v>
+        <v>1.052927747913911</v>
       </c>
       <c r="N9">
-        <v>1.015701764898744</v>
+        <v>1.041196849697519</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.979593772576478</v>
+        <v>1.03224489053048</v>
       </c>
       <c r="D10">
-        <v>0.9942393620492931</v>
+        <v>1.041636332648305</v>
       </c>
       <c r="E10">
-        <v>0.9899123193152924</v>
+        <v>1.031770207337506</v>
       </c>
       <c r="F10">
-        <v>0.9936376169366546</v>
+        <v>1.047967558538452</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038789406894761</v>
+        <v>1.032179430436848</v>
       </c>
       <c r="J10">
-        <v>1.008641082352382</v>
+        <v>1.038602792960582</v>
       </c>
       <c r="K10">
-        <v>1.008713411426482</v>
+        <v>1.045061913406661</v>
       </c>
       <c r="L10">
-        <v>1.004466130342037</v>
+        <v>1.035230986847905</v>
       </c>
       <c r="M10">
-        <v>1.008122704290331</v>
+        <v>1.05137093638074</v>
       </c>
       <c r="N10">
-        <v>1.010073468382072</v>
+        <v>1.040077728055992</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9757064141828148</v>
+        <v>1.031524819067613</v>
       </c>
       <c r="D11">
-        <v>0.9906950478857024</v>
+        <v>1.040937376418306</v>
       </c>
       <c r="E11">
-        <v>0.9868127656370425</v>
+        <v>1.031157616290795</v>
       </c>
       <c r="F11">
-        <v>0.9896472490677629</v>
+        <v>1.047170763286696</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037969578422673</v>
+        <v>1.032081150355034</v>
       </c>
       <c r="J11">
-        <v>1.006125960387046</v>
+        <v>1.038118248810326</v>
       </c>
       <c r="K11">
-        <v>1.005794601561571</v>
+        <v>1.044486272288781</v>
       </c>
       <c r="L11">
-        <v>1.001987733819738</v>
+        <v>1.034742764689572</v>
       </c>
       <c r="M11">
-        <v>1.004767080147426</v>
+        <v>1.050696943036918</v>
       </c>
       <c r="N11">
-        <v>1.007554774655057</v>
+        <v>1.039592495797464</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.974242842805934</v>
+        <v>1.03125735419599</v>
       </c>
       <c r="D12">
-        <v>0.9893619891191205</v>
+        <v>1.040677819523699</v>
       </c>
       <c r="E12">
-        <v>0.9856474453907472</v>
+        <v>1.030930143152121</v>
       </c>
       <c r="F12">
-        <v>0.988146455117778</v>
+        <v>1.046874918836898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037658860127219</v>
+        <v>1.032044358150957</v>
       </c>
       <c r="J12">
-        <v>1.005178759819825</v>
+        <v>1.037938170583317</v>
       </c>
       <c r="K12">
-        <v>1.004695874496472</v>
+        <v>1.044272410173761</v>
       </c>
       <c r="L12">
-        <v>1.001054882091553</v>
+        <v>1.034561372213942</v>
       </c>
       <c r="M12">
-        <v>1.0035043292086</v>
+        <v>1.05044660893969</v>
       </c>
       <c r="N12">
-        <v>1.006606228954384</v>
+        <v>1.039412161838717</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9745576928582298</v>
+        <v>1.031314726252529</v>
       </c>
       <c r="D13">
-        <v>0.9896487002542892</v>
+        <v>1.040733492350671</v>
       </c>
       <c r="E13">
-        <v>0.9858980584196254</v>
+        <v>1.030978933723121</v>
       </c>
       <c r="F13">
-        <v>0.988469241547916</v>
+        <v>1.046938373019674</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037725795021728</v>
+        <v>1.032052263170747</v>
       </c>
       <c r="J13">
-        <v>1.005382536964206</v>
+        <v>1.037976802364282</v>
       </c>
       <c r="K13">
-        <v>1.004932227930137</v>
+        <v>1.04431828629023</v>
       </c>
       <c r="L13">
-        <v>1.001255548772217</v>
+        <v>1.034600283554108</v>
       </c>
       <c r="M13">
-        <v>1.00377594872001</v>
+        <v>1.050500305689218</v>
       </c>
       <c r="N13">
-        <v>1.006810295485684</v>
+        <v>1.039450848481242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9755858427971477</v>
+        <v>1.031502710306889</v>
       </c>
       <c r="D14">
-        <v>0.9905852003544036</v>
+        <v>1.040915920008012</v>
       </c>
       <c r="E14">
-        <v>0.9867167306704331</v>
+        <v>1.031138811852517</v>
       </c>
       <c r="F14">
-        <v>0.9895235793061182</v>
+        <v>1.047146306231744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03794402232378</v>
+        <v>1.032078114945776</v>
       </c>
       <c r="J14">
-        <v>1.00604793355791</v>
+        <v>1.038103365466682</v>
       </c>
       <c r="K14">
-        <v>1.005704082391402</v>
+        <v>1.044468595265915</v>
       </c>
       <c r="L14">
-        <v>1.001910878432728</v>
+        <v>1.034727771649789</v>
       </c>
       <c r="M14">
-        <v>1.004663039651782</v>
+        <v>1.050676249997254</v>
       </c>
       <c r="N14">
-        <v>1.007476637018874</v>
+        <v>1.039577591317765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.976216680340776</v>
+        <v>1.031618533694104</v>
       </c>
       <c r="D15">
-        <v>0.9911599856987808</v>
+        <v>1.041028328521523</v>
       </c>
       <c r="E15">
-        <v>0.9872192596515368</v>
+        <v>1.031237327382711</v>
       </c>
       <c r="F15">
-        <v>0.9901706915342927</v>
+        <v>1.047274436733246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038077650175542</v>
+        <v>1.032094005104006</v>
       </c>
       <c r="J15">
-        <v>1.00645616455505</v>
+        <v>1.038181332318921</v>
       </c>
       <c r="K15">
-        <v>1.006177692885312</v>
+        <v>1.044561199831652</v>
       </c>
       <c r="L15">
-        <v>1.002313001660953</v>
+        <v>1.034806315305087</v>
       </c>
       <c r="M15">
-        <v>1.005207412267328</v>
+        <v>1.050784657337293</v>
       </c>
       <c r="N15">
-        <v>1.007885447750853</v>
+        <v>1.039655668891877</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9798490791908298</v>
+        <v>1.03229267958562</v>
       </c>
       <c r="D16">
-        <v>0.9944723231831288</v>
+        <v>1.041682729422015</v>
       </c>
       <c r="E16">
-        <v>0.9901161088458715</v>
+        <v>1.031810872863021</v>
       </c>
       <c r="F16">
-        <v>0.9938999026386487</v>
+        <v>1.048020456186732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038842961526147</v>
+        <v>1.032185912761606</v>
       </c>
       <c r="J16">
-        <v>1.00880622493839</v>
+        <v>1.038634936972127</v>
       </c>
       <c r="K16">
-        <v>1.008905130376998</v>
+        <v>1.045100110743278</v>
       </c>
       <c r="L16">
-        <v>1.004628932850982</v>
+        <v>1.035263382232761</v>
       </c>
       <c r="M16">
-        <v>1.008343172180682</v>
+        <v>1.051415669512797</v>
       </c>
       <c r="N16">
-        <v>1.010238845489493</v>
+        <v>1.04010991771572</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9820939340511414</v>
+        <v>1.032715557379952</v>
       </c>
       <c r="D17">
-        <v>0.9965216833741153</v>
+        <v>1.042093336744608</v>
       </c>
       <c r="E17">
-        <v>0.9919091715815693</v>
+        <v>1.032170768246286</v>
       </c>
       <c r="F17">
-        <v>0.9962072777591033</v>
+        <v>1.048488630374356</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039312257087434</v>
+        <v>1.032243053109147</v>
       </c>
       <c r="J17">
-        <v>1.010258042547732</v>
+        <v>1.038919298581573</v>
       </c>
       <c r="K17">
-        <v>1.010590976188211</v>
+        <v>1.045438078301927</v>
       </c>
       <c r="L17">
-        <v>1.006060565271746</v>
+        <v>1.035550008052424</v>
       </c>
       <c r="M17">
-        <v>1.010282135547783</v>
+        <v>1.0518115176148</v>
       </c>
       <c r="N17">
-        <v>1.011692724846366</v>
+        <v>1.040394683151268</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9833915754433564</v>
+        <v>1.032962216483614</v>
       </c>
       <c r="D18">
-        <v>0.997707128128837</v>
+        <v>1.042332879997035</v>
       </c>
       <c r="E18">
-        <v>0.9929466274955763</v>
+        <v>1.032380734319791</v>
       </c>
       <c r="F18">
-        <v>0.9975420150354263</v>
+        <v>1.048761786457701</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039582190619806</v>
+        <v>1.032276197938695</v>
       </c>
       <c r="J18">
-        <v>1.01109705311516</v>
+        <v>1.039085099743586</v>
       </c>
       <c r="K18">
-        <v>1.011565557247676</v>
+        <v>1.045635181386227</v>
       </c>
       <c r="L18">
-        <v>1.006888232262545</v>
+        <v>1.035717163160193</v>
       </c>
       <c r="M18">
-        <v>1.011403311815176</v>
+        <v>1.052042420368235</v>
       </c>
       <c r="N18">
-        <v>1.012532926905036</v>
+        <v>1.040560719769948</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9838320806639058</v>
+        <v>1.033046321164732</v>
       </c>
       <c r="D19">
-        <v>0.9981096817837687</v>
+        <v>1.042414565348882</v>
       </c>
       <c r="E19">
-        <v>0.993298971103623</v>
+        <v>1.032452334986478</v>
       </c>
       <c r="F19">
-        <v>0.997995274112263</v>
+        <v>1.048854938871899</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039673594042443</v>
+        <v>1.032287468226314</v>
       </c>
       <c r="J19">
-        <v>1.011381830490538</v>
+        <v>1.039141623117597</v>
       </c>
       <c r="K19">
-        <v>1.011896405445279</v>
+        <v>1.045702383757993</v>
       </c>
       <c r="L19">
-        <v>1.007169213748218</v>
+        <v>1.035774153834563</v>
       </c>
       <c r="M19">
-        <v>1.011783971922263</v>
+        <v>1.052121154162028</v>
       </c>
       <c r="N19">
-        <v>1.012818108696952</v>
+        <v>1.040617323413634</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9818543055769635</v>
+        <v>1.032670186430203</v>
       </c>
       <c r="D20">
-        <v>0.9963028386449454</v>
+        <v>1.04204927802437</v>
       </c>
       <c r="E20">
-        <v>0.9917176682680745</v>
+        <v>1.032132150203218</v>
       </c>
       <c r="F20">
-        <v>0.9959608760326296</v>
+        <v>1.048438391651037</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039262300794996</v>
+        <v>1.032236941538915</v>
       </c>
       <c r="J20">
-        <v>1.01010308917181</v>
+        <v>1.038888795701935</v>
       </c>
       <c r="K20">
-        <v>1.010411011207683</v>
+        <v>1.045401820445607</v>
       </c>
       <c r="L20">
-        <v>1.005907732853652</v>
+        <v>1.035519258802372</v>
       </c>
       <c r="M20">
-        <v>1.010075122346451</v>
+        <v>1.051769045698798</v>
       </c>
       <c r="N20">
-        <v>1.011537551418877</v>
+        <v>1.040364136954042</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9752836304843975</v>
+        <v>1.031447353646464</v>
       </c>
       <c r="D21">
-        <v>0.9903098894960169</v>
+        <v>1.040862197774367</v>
       </c>
       <c r="E21">
-        <v>0.9864760457516336</v>
+        <v>1.031091729782787</v>
       </c>
       <c r="F21">
-        <v>0.9892136261641133</v>
+        <v>1.047085071754037</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037879933052235</v>
+        <v>1.032070510152892</v>
       </c>
       <c r="J21">
-        <v>1.005852355109651</v>
+        <v>1.038066098465242</v>
       </c>
       <c r="K21">
-        <v>1.00547719928184</v>
+        <v>1.04442433421829</v>
       </c>
       <c r="L21">
-        <v>1.001718244630363</v>
+        <v>1.03469023082655</v>
       </c>
       <c r="M21">
-        <v>1.004402272289515</v>
+        <v>1.050624438316939</v>
       </c>
       <c r="N21">
-        <v>1.007280780826784</v>
+        <v>1.039540271392908</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9710381164474542</v>
+        <v>1.030678519787149</v>
       </c>
       <c r="D22">
-        <v>0.9864456179145578</v>
+        <v>1.040116218324248</v>
       </c>
       <c r="E22">
-        <v>0.9830989243898974</v>
+        <v>1.03043798382259</v>
       </c>
       <c r="F22">
-        <v>0.9848631397507805</v>
+        <v>1.046234884340409</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036974784923485</v>
+        <v>1.031964209995899</v>
       </c>
       <c r="J22">
-        <v>1.003104289222293</v>
+        <v>1.037548275027623</v>
       </c>
       <c r="K22">
-        <v>1.002290458290766</v>
+        <v>1.043809498759626</v>
       </c>
       <c r="L22">
-        <v>0.9990127982754847</v>
+        <v>1.034168727491885</v>
       </c>
       <c r="M22">
-        <v>1.000740545318134</v>
+        <v>1.049904876600608</v>
       </c>
       <c r="N22">
-        <v>1.004528812370659</v>
+        <v>1.039021712586613</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9733000070904747</v>
+        <v>1.031086092497378</v>
       </c>
       <c r="D23">
-        <v>0.9885036213225752</v>
+        <v>1.04051163974217</v>
       </c>
       <c r="E23">
-        <v>0.9848972196129732</v>
+        <v>1.030784508256999</v>
       </c>
       <c r="F23">
-        <v>0.9871800852178574</v>
+        <v>1.046685518765877</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0374581239007</v>
+        <v>1.032020718843043</v>
       </c>
       <c r="J23">
-        <v>1.004568503661441</v>
+        <v>1.037822836261935</v>
       </c>
       <c r="K23">
-        <v>1.003988134244101</v>
+        <v>1.044135458553036</v>
       </c>
       <c r="L23">
-        <v>1.000454017371684</v>
+        <v>1.034445210989523</v>
       </c>
       <c r="M23">
-        <v>1.002691045705796</v>
+        <v>1.050286320701864</v>
       </c>
       <c r="N23">
-        <v>1.005995106162258</v>
+        <v>1.03929666372937</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9819626195745653</v>
+        <v>1.032690687604062</v>
       </c>
       <c r="D24">
-        <v>0.9964017557170749</v>
+        <v>1.042069186130657</v>
       </c>
       <c r="E24">
-        <v>0.9918042262927824</v>
+        <v>1.032149599894852</v>
       </c>
       <c r="F24">
-        <v>0.9960722486321966</v>
+        <v>1.048461092126322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039284885613352</v>
+        <v>1.032239703663453</v>
       </c>
       <c r="J24">
-        <v>1.010173130014384</v>
+        <v>1.03890257883215</v>
       </c>
       <c r="K24">
-        <v>1.010492356596535</v>
+        <v>1.0454182038955</v>
       </c>
       <c r="L24">
-        <v>1.005976814000086</v>
+        <v>1.035533153153999</v>
       </c>
       <c r="M24">
-        <v>1.01016869287857</v>
+        <v>1.051788236894456</v>
       </c>
       <c r="N24">
-        <v>1.011607691727482</v>
+        <v>1.040377939657883</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9915578641430413</v>
+        <v>1.034552797833865</v>
       </c>
       <c r="D25">
-        <v>1.005181138382449</v>
+        <v>1.043878317659246</v>
       </c>
       <c r="E25">
-        <v>0.9994920145215607</v>
+        <v>1.033735484876348</v>
       </c>
       <c r="F25">
-        <v>1.00595840044284</v>
+        <v>1.050524608049735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041256460668917</v>
+        <v>1.032486598210636</v>
       </c>
       <c r="J25">
-        <v>1.016372718691123</v>
+        <v>1.040153122284645</v>
       </c>
       <c r="K25">
-        <v>1.01769955278356</v>
+        <v>1.046905673647436</v>
       </c>
       <c r="L25">
-        <v>1.012098221431939</v>
+        <v>1.03679451651061</v>
       </c>
       <c r="M25">
-        <v>1.018464918761365</v>
+        <v>1.053531569912094</v>
       </c>
       <c r="N25">
-        <v>1.017816084531245</v>
+        <v>1.04163025902552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036038093016071</v>
+        <v>0.998881766504177</v>
       </c>
       <c r="D2">
-        <v>1.045322645424396</v>
+        <v>1.011904904190301</v>
       </c>
       <c r="E2">
-        <v>1.035001808334363</v>
+        <v>1.00538676689399</v>
       </c>
       <c r="F2">
-        <v>1.052172954246519</v>
+        <v>1.013532406278207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032677687955853</v>
+        <v>1.042717705623292</v>
       </c>
       <c r="J2">
-        <v>1.041148591938893</v>
+        <v>1.021095975262229</v>
       </c>
       <c r="K2">
-        <v>1.048091209690816</v>
+        <v>1.023200839336782</v>
       </c>
       <c r="L2">
-        <v>1.0377996643153</v>
+        <v>1.016771562180249</v>
       </c>
       <c r="M2">
-        <v>1.05492242056042</v>
+        <v>1.02480637827324</v>
       </c>
       <c r="N2">
-        <v>1.042627142360859</v>
+        <v>1.022546048668446</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037116611126068</v>
+        <v>1.004026039363076</v>
       </c>
       <c r="D3">
-        <v>1.046372156142156</v>
+        <v>1.016639776380292</v>
       </c>
       <c r="E3">
-        <v>1.035922098123694</v>
+        <v>1.0095414009111</v>
       </c>
       <c r="F3">
-        <v>1.053371257679468</v>
+        <v>1.018868045310885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032813050072243</v>
+        <v>1.043717821357056</v>
       </c>
       <c r="J3">
-        <v>1.041870257755953</v>
+        <v>1.024407548968898</v>
       </c>
       <c r="K3">
-        <v>1.04895151746996</v>
+        <v>1.027064084714962</v>
       </c>
       <c r="L3">
-        <v>1.038528963353022</v>
+        <v>1.020053636198707</v>
       </c>
       <c r="M3">
-        <v>1.055932527072181</v>
+        <v>1.029265066418052</v>
       </c>
       <c r="N3">
-        <v>1.043349833026156</v>
+        <v>1.025862325189622</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03781451815435</v>
+        <v>1.007279641337355</v>
       </c>
       <c r="D4">
-        <v>1.04705163237875</v>
+        <v>1.019639778874892</v>
       </c>
       <c r="E4">
-        <v>1.036517969542671</v>
+        <v>1.012175260869345</v>
       </c>
       <c r="F4">
-        <v>1.054147319026381</v>
+        <v>1.022249789394647</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032899070497003</v>
+        <v>1.044337886816507</v>
       </c>
       <c r="J4">
-        <v>1.042336700454698</v>
+        <v>1.026498948587548</v>
       </c>
       <c r="K4">
-        <v>1.049507966197953</v>
+        <v>1.029506809651738</v>
       </c>
       <c r="L4">
-        <v>1.039000625054044</v>
+        <v>1.022128928959958</v>
       </c>
       <c r="M4">
-        <v>1.056586240975379</v>
+        <v>1.032086895393795</v>
       </c>
       <c r="N4">
-        <v>1.043816938127034</v>
+        <v>1.027956694835618</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038107926744809</v>
+        <v>1.008630201165091</v>
       </c>
       <c r="D5">
-        <v>1.047337373397861</v>
+        <v>1.020886311677164</v>
       </c>
       <c r="E5">
-        <v>1.036768565136205</v>
+        <v>1.013269995304626</v>
       </c>
       <c r="F5">
-        <v>1.054473738030309</v>
+        <v>1.023655225678468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032934857880261</v>
+        <v>1.044592231202221</v>
       </c>
       <c r="J5">
-        <v>1.042532667611929</v>
+        <v>1.027366302983729</v>
       </c>
       <c r="K5">
-        <v>1.049741842678528</v>
+        <v>1.030520577813419</v>
       </c>
       <c r="L5">
-        <v>1.039198853173767</v>
+        <v>1.022990206734017</v>
       </c>
       <c r="M5">
-        <v>1.056861088170872</v>
+        <v>1.033258636338164</v>
       </c>
       <c r="N5">
-        <v>1.044013183580107</v>
+        <v>1.028825280974528</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038157191847206</v>
+        <v>1.008855974499318</v>
       </c>
       <c r="D6">
-        <v>1.047385355803666</v>
+        <v>1.021094766686497</v>
       </c>
       <c r="E6">
-        <v>1.03681064658133</v>
+        <v>1.013453084660514</v>
       </c>
       <c r="F6">
-        <v>1.054528554773184</v>
+        <v>1.023890271216367</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032940844706807</v>
+        <v>1.044634569706883</v>
       </c>
       <c r="J6">
-        <v>1.042565564007282</v>
+        <v>1.027511251804187</v>
       </c>
       <c r="K6">
-        <v>1.049781108369125</v>
+        <v>1.030690036786426</v>
       </c>
       <c r="L6">
-        <v>1.039232133114732</v>
+        <v>1.023134175470361</v>
       </c>
       <c r="M6">
-        <v>1.056907237745784</v>
+        <v>1.033454539595704</v>
       </c>
       <c r="N6">
-        <v>1.044046126692114</v>
+        <v>1.028970435638937</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037818438660477</v>
+        <v>1.007297754457452</v>
       </c>
       <c r="D7">
-        <v>1.0470554501137</v>
+        <v>1.019656491973584</v>
       </c>
       <c r="E7">
-        <v>1.036521317655086</v>
+        <v>1.012189937398556</v>
       </c>
       <c r="F7">
-        <v>1.054151680012984</v>
+        <v>1.022268631860382</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032899550165937</v>
+        <v>1.044341310061833</v>
       </c>
       <c r="J7">
-        <v>1.042339319470085</v>
+        <v>1.026510584298949</v>
       </c>
       <c r="K7">
-        <v>1.049511091481337</v>
+        <v>1.029520406707212</v>
       </c>
       <c r="L7">
-        <v>1.039003274017787</v>
+        <v>1.022140480769826</v>
       </c>
       <c r="M7">
-        <v>1.056589913395221</v>
+        <v>1.03210260869957</v>
       </c>
       <c r="N7">
-        <v>1.043819560861723</v>
+        <v>1.027968347071063</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036402576530892</v>
+        <v>1.000636292606501</v>
       </c>
       <c r="D8">
-        <v>1.045677255332853</v>
+        <v>1.013518653885497</v>
       </c>
       <c r="E8">
-        <v>1.035312745224713</v>
+        <v>1.006802431870485</v>
       </c>
       <c r="F8">
-        <v>1.052577786102696</v>
+        <v>1.015350694558228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032723758719595</v>
+        <v>1.04306139955113</v>
       </c>
       <c r="J8">
-        <v>1.041392590603611</v>
+        <v>1.022226053455812</v>
       </c>
       <c r="K8">
-        <v>1.048382001929579</v>
+        <v>1.024518567898352</v>
       </c>
       <c r="L8">
-        <v>1.03804618467442</v>
+        <v>1.017891041603777</v>
       </c>
       <c r="M8">
-        <v>1.055263768626857</v>
+        <v>1.026326669426757</v>
       </c>
       <c r="N8">
-        <v>1.042871487531668</v>
+        <v>1.023677731702686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033907885855682</v>
+        <v>0.988288175931615</v>
       </c>
       <c r="D9">
-        <v>1.043251553211309</v>
+        <v>1.002185750284162</v>
       </c>
       <c r="E9">
-        <v>1.033186027369787</v>
+        <v>0.9968678849716169</v>
       </c>
       <c r="F9">
-        <v>1.049809570297389</v>
+        <v>1.002585061681627</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032401993828691</v>
+        <v>1.04059138709534</v>
       </c>
       <c r="J9">
-        <v>1.039720327574775</v>
+        <v>1.014261397377059</v>
       </c>
       <c r="K9">
-        <v>1.046390655542878</v>
+        <v>1.015243464476382</v>
       </c>
       <c r="L9">
-        <v>1.036357812095791</v>
+        <v>1.010011983782724</v>
       </c>
       <c r="M9">
-        <v>1.052927747913911</v>
+        <v>1.015636336834579</v>
       </c>
       <c r="N9">
-        <v>1.041196849697519</v>
+        <v>1.015701764898743</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03224489053048</v>
+        <v>0.9795937725764775</v>
       </c>
       <c r="D10">
-        <v>1.041636332648305</v>
+        <v>0.9942393620492926</v>
       </c>
       <c r="E10">
-        <v>1.031770207337506</v>
+        <v>0.9899123193152917</v>
       </c>
       <c r="F10">
-        <v>1.047967558538452</v>
+        <v>0.9936376169366544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032179430436848</v>
+        <v>1.03878940689476</v>
       </c>
       <c r="J10">
-        <v>1.038602792960582</v>
+        <v>1.008641082352382</v>
       </c>
       <c r="K10">
-        <v>1.045061913406661</v>
+        <v>1.008713411426481</v>
       </c>
       <c r="L10">
-        <v>1.035230986847905</v>
+        <v>1.004466130342037</v>
       </c>
       <c r="M10">
-        <v>1.05137093638074</v>
+        <v>1.008122704290331</v>
       </c>
       <c r="N10">
-        <v>1.040077728055992</v>
+        <v>1.010073468382071</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031524819067613</v>
+        <v>0.9757064141828138</v>
       </c>
       <c r="D11">
-        <v>1.040937376418306</v>
+        <v>0.9906950478857012</v>
       </c>
       <c r="E11">
-        <v>1.031157616290795</v>
+        <v>0.9868127656370413</v>
       </c>
       <c r="F11">
-        <v>1.047170763286696</v>
+        <v>0.9896472490677615</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032081150355034</v>
+        <v>1.037969578422673</v>
       </c>
       <c r="J11">
-        <v>1.038118248810326</v>
+        <v>1.006125960387045</v>
       </c>
       <c r="K11">
-        <v>1.044486272288781</v>
+        <v>1.00579460156157</v>
       </c>
       <c r="L11">
-        <v>1.034742764689572</v>
+        <v>1.001987733819737</v>
       </c>
       <c r="M11">
-        <v>1.050696943036918</v>
+        <v>1.004767080147425</v>
       </c>
       <c r="N11">
-        <v>1.039592495797464</v>
+        <v>1.007554774655056</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03125735419599</v>
+        <v>0.9742428428059334</v>
       </c>
       <c r="D12">
-        <v>1.040677819523699</v>
+        <v>0.9893619891191203</v>
       </c>
       <c r="E12">
-        <v>1.030930143152121</v>
+        <v>0.9856474453907464</v>
       </c>
       <c r="F12">
-        <v>1.046874918836898</v>
+        <v>0.9881464551177774</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032044358150957</v>
+        <v>1.037658860127219</v>
       </c>
       <c r="J12">
-        <v>1.037938170583317</v>
+        <v>1.005178759819824</v>
       </c>
       <c r="K12">
-        <v>1.044272410173761</v>
+        <v>1.004695874496472</v>
       </c>
       <c r="L12">
-        <v>1.034561372213942</v>
+        <v>1.001054882091552</v>
       </c>
       <c r="M12">
-        <v>1.05044660893969</v>
+        <v>1.0035043292086</v>
       </c>
       <c r="N12">
-        <v>1.039412161838717</v>
+        <v>1.006606228954384</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031314726252529</v>
+        <v>0.9745576928582295</v>
       </c>
       <c r="D13">
-        <v>1.040733492350671</v>
+        <v>0.9896487002542889</v>
       </c>
       <c r="E13">
-        <v>1.030978933723121</v>
+        <v>0.9858980584196251</v>
       </c>
       <c r="F13">
-        <v>1.046938373019674</v>
+        <v>0.9884692415479159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032052263170747</v>
+        <v>1.037725795021728</v>
       </c>
       <c r="J13">
-        <v>1.037976802364282</v>
+        <v>1.005382536964206</v>
       </c>
       <c r="K13">
-        <v>1.04431828629023</v>
+        <v>1.004932227930137</v>
       </c>
       <c r="L13">
-        <v>1.034600283554108</v>
+        <v>1.001255548772217</v>
       </c>
       <c r="M13">
-        <v>1.050500305689218</v>
+        <v>1.003775948720009</v>
       </c>
       <c r="N13">
-        <v>1.039450848481242</v>
+        <v>1.006810295485684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031502710306889</v>
+        <v>0.9755858427971479</v>
       </c>
       <c r="D14">
-        <v>1.040915920008012</v>
+        <v>0.9905852003544041</v>
       </c>
       <c r="E14">
-        <v>1.031138811852517</v>
+        <v>0.9867167306704333</v>
       </c>
       <c r="F14">
-        <v>1.047146306231744</v>
+        <v>0.9895235793061187</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032078114945776</v>
+        <v>1.03794402232378</v>
       </c>
       <c r="J14">
-        <v>1.038103365466682</v>
+        <v>1.006047933557911</v>
       </c>
       <c r="K14">
-        <v>1.044468595265915</v>
+        <v>1.005704082391402</v>
       </c>
       <c r="L14">
-        <v>1.034727771649789</v>
+        <v>1.001910878432728</v>
       </c>
       <c r="M14">
-        <v>1.050676249997254</v>
+        <v>1.004663039651782</v>
       </c>
       <c r="N14">
-        <v>1.039577591317765</v>
+        <v>1.007476637018874</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031618533694104</v>
+        <v>0.9762166803407755</v>
       </c>
       <c r="D15">
-        <v>1.041028328521523</v>
+        <v>0.9911599856987803</v>
       </c>
       <c r="E15">
-        <v>1.031237327382711</v>
+        <v>0.9872192596515359</v>
       </c>
       <c r="F15">
-        <v>1.047274436733246</v>
+        <v>0.9901706915342922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032094005104006</v>
+        <v>1.038077650175542</v>
       </c>
       <c r="J15">
-        <v>1.038181332318921</v>
+        <v>1.006456164555049</v>
       </c>
       <c r="K15">
-        <v>1.044561199831652</v>
+        <v>1.006177692885311</v>
       </c>
       <c r="L15">
-        <v>1.034806315305087</v>
+        <v>1.002313001660952</v>
       </c>
       <c r="M15">
-        <v>1.050784657337293</v>
+        <v>1.005207412267327</v>
       </c>
       <c r="N15">
-        <v>1.039655668891877</v>
+        <v>1.007885447750853</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03229267958562</v>
+        <v>0.9798490791908299</v>
       </c>
       <c r="D16">
-        <v>1.041682729422015</v>
+        <v>0.9944723231831289</v>
       </c>
       <c r="E16">
-        <v>1.031810872863021</v>
+        <v>0.9901161088458715</v>
       </c>
       <c r="F16">
-        <v>1.048020456186732</v>
+        <v>0.9938999026386487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032185912761606</v>
+        <v>1.038842961526147</v>
       </c>
       <c r="J16">
-        <v>1.038634936972127</v>
+        <v>1.00880622493839</v>
       </c>
       <c r="K16">
-        <v>1.045100110743278</v>
+        <v>1.008905130376998</v>
       </c>
       <c r="L16">
-        <v>1.035263382232761</v>
+        <v>1.004628932850982</v>
       </c>
       <c r="M16">
-        <v>1.051415669512797</v>
+        <v>1.008343172180682</v>
       </c>
       <c r="N16">
-        <v>1.04010991771572</v>
+        <v>1.010238845489493</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032715557379952</v>
+        <v>0.9820939340511401</v>
       </c>
       <c r="D17">
-        <v>1.042093336744608</v>
+        <v>0.996521683374114</v>
       </c>
       <c r="E17">
-        <v>1.032170768246286</v>
+        <v>0.991909171581568</v>
       </c>
       <c r="F17">
-        <v>1.048488630374356</v>
+        <v>0.9962072777591019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032243053109147</v>
+        <v>1.039312257087434</v>
       </c>
       <c r="J17">
-        <v>1.038919298581573</v>
+        <v>1.01025804254773</v>
       </c>
       <c r="K17">
-        <v>1.045438078301927</v>
+        <v>1.01059097618821</v>
       </c>
       <c r="L17">
-        <v>1.035550008052424</v>
+        <v>1.006060565271745</v>
       </c>
       <c r="M17">
-        <v>1.0518115176148</v>
+        <v>1.010282135547782</v>
       </c>
       <c r="N17">
-        <v>1.040394683151268</v>
+        <v>1.011692724846365</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032962216483614</v>
+        <v>0.9833915754433546</v>
       </c>
       <c r="D18">
-        <v>1.042332879997035</v>
+        <v>0.997707128128835</v>
       </c>
       <c r="E18">
-        <v>1.032380734319791</v>
+        <v>0.9929466274955744</v>
       </c>
       <c r="F18">
-        <v>1.048761786457701</v>
+        <v>0.9975420150354243</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032276197938695</v>
+        <v>1.039582190619806</v>
       </c>
       <c r="J18">
-        <v>1.039085099743586</v>
+        <v>1.011097053115158</v>
       </c>
       <c r="K18">
-        <v>1.045635181386227</v>
+        <v>1.011565557247674</v>
       </c>
       <c r="L18">
-        <v>1.035717163160193</v>
+        <v>1.006888232262544</v>
       </c>
       <c r="M18">
-        <v>1.052042420368235</v>
+        <v>1.011403311815174</v>
       </c>
       <c r="N18">
-        <v>1.040560719769948</v>
+        <v>1.012532926905034</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033046321164732</v>
+        <v>0.9838320806639056</v>
       </c>
       <c r="D19">
-        <v>1.042414565348882</v>
+        <v>0.9981096817837682</v>
       </c>
       <c r="E19">
-        <v>1.032452334986478</v>
+        <v>0.9932989711036223</v>
       </c>
       <c r="F19">
-        <v>1.048854938871899</v>
+        <v>0.9979952741122629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032287468226314</v>
+        <v>1.039673594042443</v>
       </c>
       <c r="J19">
-        <v>1.039141623117597</v>
+        <v>1.011381830490538</v>
       </c>
       <c r="K19">
-        <v>1.045702383757993</v>
+        <v>1.011896405445279</v>
       </c>
       <c r="L19">
-        <v>1.035774153834563</v>
+        <v>1.007169213748217</v>
       </c>
       <c r="M19">
-        <v>1.052121154162028</v>
+        <v>1.011783971922263</v>
       </c>
       <c r="N19">
-        <v>1.040617323413634</v>
+        <v>1.012818108696952</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032670186430203</v>
+        <v>0.9818543055769632</v>
       </c>
       <c r="D20">
-        <v>1.04204927802437</v>
+        <v>0.9963028386449451</v>
       </c>
       <c r="E20">
-        <v>1.032132150203218</v>
+        <v>0.9917176682680741</v>
       </c>
       <c r="F20">
-        <v>1.048438391651037</v>
+        <v>0.9959608760326293</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032236941538915</v>
+        <v>1.039262300794996</v>
       </c>
       <c r="J20">
-        <v>1.038888795701935</v>
+        <v>1.010103089171809</v>
       </c>
       <c r="K20">
-        <v>1.045401820445607</v>
+        <v>1.010411011207683</v>
       </c>
       <c r="L20">
-        <v>1.035519258802372</v>
+        <v>1.005907732853652</v>
       </c>
       <c r="M20">
-        <v>1.051769045698798</v>
+        <v>1.010075122346451</v>
       </c>
       <c r="N20">
-        <v>1.040364136954042</v>
+        <v>1.011537551418877</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031447353646464</v>
+        <v>0.9752836304843969</v>
       </c>
       <c r="D21">
-        <v>1.040862197774367</v>
+        <v>0.9903098894960167</v>
       </c>
       <c r="E21">
-        <v>1.031091729782787</v>
+        <v>0.9864760457516331</v>
       </c>
       <c r="F21">
-        <v>1.047085071754037</v>
+        <v>0.9892136261641136</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032070510152892</v>
+        <v>1.037879933052235</v>
       </c>
       <c r="J21">
-        <v>1.038066098465242</v>
+        <v>1.005852355109651</v>
       </c>
       <c r="K21">
-        <v>1.04442433421829</v>
+        <v>1.005477199281839</v>
       </c>
       <c r="L21">
-        <v>1.03469023082655</v>
+        <v>1.001718244630363</v>
       </c>
       <c r="M21">
-        <v>1.050624438316939</v>
+        <v>1.004402272289515</v>
       </c>
       <c r="N21">
-        <v>1.039540271392908</v>
+        <v>1.007280780826784</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030678519787149</v>
+        <v>0.9710381164474535</v>
       </c>
       <c r="D22">
-        <v>1.040116218324248</v>
+        <v>0.9864456179145574</v>
       </c>
       <c r="E22">
-        <v>1.03043798382259</v>
+        <v>0.9830989243898967</v>
       </c>
       <c r="F22">
-        <v>1.046234884340409</v>
+        <v>0.98486313975078</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031964209995899</v>
+        <v>1.036974784923485</v>
       </c>
       <c r="J22">
-        <v>1.037548275027623</v>
+        <v>1.003104289222293</v>
       </c>
       <c r="K22">
-        <v>1.043809498759626</v>
+        <v>1.002290458290765</v>
       </c>
       <c r="L22">
-        <v>1.034168727491885</v>
+        <v>0.9990127982754839</v>
       </c>
       <c r="M22">
-        <v>1.049904876600608</v>
+        <v>1.000740545318133</v>
       </c>
       <c r="N22">
-        <v>1.039021712586613</v>
+        <v>1.004528812370658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031086092497378</v>
+        <v>0.9733000070904738</v>
       </c>
       <c r="D23">
-        <v>1.04051163974217</v>
+        <v>0.9885036213225744</v>
       </c>
       <c r="E23">
-        <v>1.030784508256999</v>
+        <v>0.9848972196129725</v>
       </c>
       <c r="F23">
-        <v>1.046685518765877</v>
+        <v>0.9871800852178562</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032020718843043</v>
+        <v>1.0374581239007</v>
       </c>
       <c r="J23">
-        <v>1.037822836261935</v>
+        <v>1.00456850366144</v>
       </c>
       <c r="K23">
-        <v>1.044135458553036</v>
+        <v>1.0039881342441</v>
       </c>
       <c r="L23">
-        <v>1.034445210989523</v>
+        <v>1.000454017371684</v>
       </c>
       <c r="M23">
-        <v>1.050286320701864</v>
+        <v>1.002691045705795</v>
       </c>
       <c r="N23">
-        <v>1.03929666372937</v>
+        <v>1.005995106162258</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032690687604062</v>
+        <v>0.981962619574564</v>
       </c>
       <c r="D24">
-        <v>1.042069186130657</v>
+        <v>0.9964017557170739</v>
       </c>
       <c r="E24">
-        <v>1.032149599894852</v>
+        <v>0.9918042262927811</v>
       </c>
       <c r="F24">
-        <v>1.048461092126322</v>
+        <v>0.9960722486321958</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032239703663453</v>
+        <v>1.039284885613352</v>
       </c>
       <c r="J24">
-        <v>1.03890257883215</v>
+        <v>1.010173130014383</v>
       </c>
       <c r="K24">
-        <v>1.0454182038955</v>
+        <v>1.010492356596534</v>
       </c>
       <c r="L24">
-        <v>1.035533153153999</v>
+        <v>1.005976814000084</v>
       </c>
       <c r="M24">
-        <v>1.051788236894456</v>
+        <v>1.010168692878569</v>
       </c>
       <c r="N24">
-        <v>1.040377939657883</v>
+        <v>1.011607691727481</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034552797833865</v>
+        <v>0.9915578641430407</v>
       </c>
       <c r="D25">
-        <v>1.043878317659246</v>
+        <v>1.005181138382448</v>
       </c>
       <c r="E25">
-        <v>1.033735484876348</v>
+        <v>0.9994920145215597</v>
       </c>
       <c r="F25">
-        <v>1.050524608049735</v>
+        <v>1.005958400442839</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032486598210636</v>
+        <v>1.041256460668917</v>
       </c>
       <c r="J25">
-        <v>1.040153122284645</v>
+        <v>1.016372718691123</v>
       </c>
       <c r="K25">
-        <v>1.046905673647436</v>
+        <v>1.017699552783559</v>
       </c>
       <c r="L25">
-        <v>1.03679451651061</v>
+        <v>1.012098221431938</v>
       </c>
       <c r="M25">
-        <v>1.053531569912094</v>
+        <v>1.018464918761365</v>
       </c>
       <c r="N25">
-        <v>1.04163025902552</v>
+        <v>1.017816084531245</v>
       </c>
     </row>
   </sheetData>
